--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -419,9 +419,6 @@
     <t>D:\WS\MyAzureProject\cert\SampleRemoteAccessPublic.cer</t>
   </si>
   <si>
-    <t>C:\Users\Babu\Downloads\spymemcached-2.8.1.jar</t>
-  </si>
-  <si>
     <t>Hello World</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>D:\Java\jdk1.7.0_65</t>
+  </si>
+  <si>
+    <t>D:\Autoit\AutoIT-Scripts-master\spymemcached-2.8.1.jar</t>
   </si>
 </sst>
 </file>
@@ -872,13 +872,13 @@
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
     <col min="7" max="7" width="67" customWidth="1"/>
@@ -901,7 +901,9 @@
     <col min="27" max="27" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.140625" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.5703125" customWidth="1"/>
+    <col min="32" max="32" width="51.7109375" customWidth="1"/>
+    <col min="33" max="33" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -918,13 +920,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1019,13 +1021,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>26</v>
@@ -1046,13 +1048,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -1095,16 +1097,16 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1122,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2">
         <v>4</v>
@@ -1171,13 +1173,13 @@
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>26</v>
@@ -1198,20 +1200,20 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>3</v>
@@ -1284,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -1347,13 +1349,13 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
@@ -1374,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -1433,16 +1435,16 @@
         <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -1460,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
@@ -1519,13 +1521,13 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>26</v>
@@ -1546,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q8" s="2">
         <v>1</v>
@@ -1605,16 +1607,16 @@
         <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -1632,13 +1634,13 @@
         <v>10</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2">
         <v>8</v>
@@ -1693,13 +1695,13 @@
         <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>26</v>
@@ -1720,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q10" s="2">
         <v>1</v>
@@ -1781,16 +1783,16 @@
         <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -1808,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2">
         <v>2</v>
@@ -1869,13 +1871,13 @@
         <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>26</v>
@@ -1896,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q12" s="2">
         <v>8</v>
@@ -1957,16 +1959,16 @@
         <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
@@ -1984,13 +1986,13 @@
         <v>10</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2">
         <v>9</v>
@@ -2045,13 +2047,13 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>26</v>
@@ -2072,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2133,16 +2135,16 @@
         <v>67</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>3</v>
@@ -2160,13 +2162,13 @@
         <v>10</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q15" s="2">
         <v>1</v>
@@ -2204,7 +2206,7 @@
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,13 +2223,13 @@
         <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>26</v>
@@ -2248,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Q16" s="2">
         <v>8</v>
